--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.6506081855774</v>
+        <v>162.8087199447478</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.1301701343519</v>
+        <v>222.762073242104</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.9387995110614</v>
+        <v>201.501973620475</v>
       </c>
       <c r="AD2" t="n">
-        <v>131650.6081855774</v>
+        <v>162808.7199447478</v>
       </c>
       <c r="AE2" t="n">
-        <v>180130.1701343519</v>
+        <v>222762.073242104</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.192695104996614e-06</v>
+        <v>7.087959100600186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.832899305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>162938.7995110614</v>
+        <v>201501.973620475</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.39683884108689</v>
+        <v>100.0552150496561</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.6342576436504</v>
+        <v>136.8999593554367</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.26635656330632</v>
+        <v>123.8344193748902</v>
       </c>
       <c r="AD3" t="n">
-        <v>79396.83884108689</v>
+        <v>100055.2150496561</v>
       </c>
       <c r="AE3" t="n">
-        <v>108634.2576436504</v>
+        <v>136899.9593554367</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.024256586195533e-06</v>
+        <v>1.01843046596897e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.363715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>98266.35656330631</v>
+        <v>123834.4193748902</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.62097038690312</v>
+        <v>100.2793465954723</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.940924312622</v>
+        <v>137.2066260244083</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.54375539580069</v>
+        <v>124.1118182073846</v>
       </c>
       <c r="AD4" t="n">
-        <v>79620.97038690312</v>
+        <v>100279.3465954723</v>
       </c>
       <c r="AE4" t="n">
-        <v>108940.924312622</v>
+        <v>137206.6260244083</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.020988775019412e-06</v>
+        <v>1.01787802627601e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98543.75539580069</v>
+        <v>124111.8182073846</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.92726159922667</v>
+        <v>109.1083972869467</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.6742025139087</v>
+        <v>149.2869226907036</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.0617873968289</v>
+        <v>135.0391883146554</v>
       </c>
       <c r="AD2" t="n">
-        <v>88927.26159922667</v>
+        <v>109108.3972869467</v>
       </c>
       <c r="AE2" t="n">
-        <v>121674.2025139087</v>
+        <v>149286.9226907037</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.32139770849172e-06</v>
+        <v>9.215548698807106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.938802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110061.7873968289</v>
+        <v>135039.1883146554</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.11988524652132</v>
+        <v>96.13042873364913</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.1505851665786</v>
+        <v>131.5298935685267</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.21059949457099</v>
+        <v>118.9768651297465</v>
       </c>
       <c r="AD3" t="n">
-        <v>76119.88524652133</v>
+        <v>96130.42873364913</v>
       </c>
       <c r="AE3" t="n">
-        <v>104150.5851665786</v>
+        <v>131529.8935685267</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.13271889464891e-06</v>
+        <v>1.062058743317465e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>94210.59949457098</v>
+        <v>118976.8651297465</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.44830023154998</v>
+        <v>99.5937801109599</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.4411576221697</v>
+        <v>136.2686037152401</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8053699473854</v>
+        <v>123.2633194308806</v>
       </c>
       <c r="AD2" t="n">
-        <v>81448.30023154998</v>
+        <v>99593.78011095989</v>
       </c>
       <c r="AE2" t="n">
-        <v>111441.1576221697</v>
+        <v>136268.6037152401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.833793264917766e-06</v>
+        <v>1.103879222956098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>100805.3699473855</v>
+        <v>123263.3194308806</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.67244801495269</v>
+        <v>91.66570957289736</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.4336494561521</v>
+        <v>125.4210678432812</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.94384150808523</v>
+        <v>113.4510571579258</v>
       </c>
       <c r="AD2" t="n">
-        <v>72672.44801495269</v>
+        <v>91665.70957289735</v>
       </c>
       <c r="AE2" t="n">
-        <v>99433.6494561521</v>
+        <v>125421.0678432812</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.072715667909091e-06</v>
+        <v>1.106316910624074e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89943.84150808523</v>
+        <v>113451.0571579258</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.85547138900802</v>
+        <v>100.3755199771218</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.3665112798129</v>
+        <v>137.3382146880513</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.5469705541946</v>
+        <v>124.2308482336554</v>
       </c>
       <c r="AD2" t="n">
-        <v>82855.47138900802</v>
+        <v>100375.5199771218</v>
       </c>
       <c r="AE2" t="n">
-        <v>113366.5112798129</v>
+        <v>137338.2146880513</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435299864184594e-06</v>
+        <v>1.065143647764364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.468315972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>102546.9705541946</v>
+        <v>124230.8482336554</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5524775885617</v>
+        <v>126.818639222573</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7898006001562</v>
+        <v>173.5188570277469</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.875826648187</v>
+        <v>156.9584608483124</v>
       </c>
       <c r="AD2" t="n">
-        <v>106552.4775885617</v>
+        <v>126818.639222573</v>
       </c>
       <c r="AE2" t="n">
-        <v>145789.8006001562</v>
+        <v>173518.8570277469</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.997257439809829e-06</v>
+        <v>8.597687513179504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.155815972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>131875.826648187</v>
+        <v>156958.4608483124</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.47840025150556</v>
+        <v>96.65922103094525</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.6411212129635</v>
+        <v>132.2534105183566</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.65431946916075</v>
+        <v>119.6313306373473</v>
       </c>
       <c r="AD3" t="n">
-        <v>76478.40025150556</v>
+        <v>96659.22103094525</v>
       </c>
       <c r="AE3" t="n">
-        <v>104641.1212129635</v>
+        <v>132253.4105183566</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143578982469239e-06</v>
+        <v>1.056991218483591e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.381076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>94654.31946916075</v>
+        <v>119631.3306373473</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.22321176684683</v>
+        <v>110.9902973610387</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6061581221036</v>
+        <v>151.8618213956468</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.477430048731</v>
+        <v>137.3683423010928</v>
       </c>
       <c r="AD2" t="n">
-        <v>85223.21176684683</v>
+        <v>110990.2973610387</v>
       </c>
       <c r="AE2" t="n">
-        <v>116606.1581221035</v>
+        <v>151861.8213956468</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.08092745420491e-06</v>
+        <v>1.018553394385485e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.893663194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>105477.430048731</v>
+        <v>137368.3423010928</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.61148986815128</v>
+        <v>94.23999335678093</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0867320641863</v>
+        <v>128.9433164857742</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.34371763563426</v>
+        <v>116.6371473334874</v>
       </c>
       <c r="AD2" t="n">
-        <v>74611.48986815129</v>
+        <v>94239.99335678093</v>
       </c>
       <c r="AE2" t="n">
-        <v>102086.7320641862</v>
+        <v>128943.3164857742</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.107433470085824e-06</v>
+        <v>1.081671849996933e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.53515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>92343.71763563427</v>
+        <v>116637.1473334874</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.10064741345907</v>
+        <v>93.7291509020887</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3877748808981</v>
+        <v>128.2443593024861</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.7114679449264</v>
+        <v>116.0048976427795</v>
       </c>
       <c r="AD3" t="n">
-        <v>74100.64741345907</v>
+        <v>93729.1509020887</v>
       </c>
       <c r="AE3" t="n">
-        <v>101387.7748808981</v>
+        <v>128244.3593024861</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.157687717106392e-06</v>
+        <v>1.090572250568006e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.506944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>91711.46794492639</v>
+        <v>116004.8976427795</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.01007125143146</v>
+        <v>102.0144546390825</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2097975151594</v>
+        <v>139.5806773972389</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5006519277813</v>
+        <v>126.2592934491951</v>
       </c>
       <c r="AD2" t="n">
-        <v>82010.07125143145</v>
+        <v>102014.4546390825</v>
       </c>
       <c r="AE2" t="n">
-        <v>112209.7975151594</v>
+        <v>139580.6773972389</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.682880428585479e-06</v>
+        <v>9.910447242855591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101500.6519277813</v>
+        <v>126259.2934491951</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.35584940159062</v>
+        <v>95.18964058864944</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.1051976166624</v>
+        <v>130.2426657238951</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.26498226520778</v>
+        <v>117.8124885039705</v>
       </c>
       <c r="AD3" t="n">
-        <v>75355.84940159062</v>
+        <v>95189.64058864943</v>
       </c>
       <c r="AE3" t="n">
-        <v>103105.1976166624</v>
+        <v>130242.6657238951</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.146605967641696e-06</v>
+        <v>1.071914409082452e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.441840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>93264.98226520777</v>
+        <v>117812.4885039705</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.407725896796</v>
+        <v>154.3346610137721</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.8518949365454</v>
+        <v>211.1674919636536</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.7369070689713</v>
+        <v>191.0139629061393</v>
       </c>
       <c r="AD2" t="n">
-        <v>123407.725896796</v>
+        <v>154334.6610137721</v>
       </c>
       <c r="AE2" t="n">
-        <v>168851.8949365454</v>
+        <v>211167.4919636537</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.418389191122736e-06</v>
+        <v>7.510968790073094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152736.9070689713</v>
+        <v>191013.9629061393</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.25471615956506</v>
+        <v>98.75897460667132</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0715550038964</v>
+        <v>135.1263859952535</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.85279607022304</v>
+        <v>122.2301133669765</v>
       </c>
       <c r="AD3" t="n">
-        <v>78254.71615956507</v>
+        <v>98758.97460667131</v>
       </c>
       <c r="AE3" t="n">
-        <v>107071.5550038964</v>
+        <v>135126.3859952535</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.074202845135974e-06</v>
+        <v>1.03257422605627e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.361545138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>96852.79607022303</v>
+        <v>122230.1133669765</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.64012381634424</v>
+        <v>91.85641653865196</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.38942206157306</v>
+        <v>125.6820015272241</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.90383511397123</v>
+        <v>113.687087697296</v>
       </c>
       <c r="AD2" t="n">
-        <v>72640.12381634425</v>
+        <v>91856.41653865196</v>
       </c>
       <c r="AE2" t="n">
-        <v>99389.42206157306</v>
+        <v>125682.0015272241</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.143327114597344e-06</v>
+        <v>1.107787254419397e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595920138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89903.83511397123</v>
+        <v>113687.087697296</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.88219592171404</v>
+        <v>92.09848864402176</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.72063579560739</v>
+        <v>126.0132152612584</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.20343827409084</v>
+        <v>113.9866908574156</v>
       </c>
       <c r="AD3" t="n">
-        <v>72882.19592171404</v>
+        <v>92098.48864402175</v>
       </c>
       <c r="AE3" t="n">
-        <v>99720.63579560739</v>
+        <v>126013.2152612584</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.141901701431439e-06</v>
+        <v>1.107530218694615e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.598090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>90203.43827409085</v>
+        <v>113986.6908574156</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.99205148074017</v>
+        <v>90.49549247969242</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.50270090106642</v>
+        <v>123.8199251900245</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.10174137650212</v>
+        <v>112.0027253122775</v>
       </c>
       <c r="AD2" t="n">
-        <v>71992.05148074018</v>
+        <v>90495.49247969242</v>
       </c>
       <c r="AE2" t="n">
-        <v>98502.70090106642</v>
+        <v>123819.9251900245</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.96012541991623e-06</v>
+        <v>1.11196889227563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89101.74137650212</v>
+        <v>112002.7253122775</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.68884228273684</v>
+        <v>99.53723622970143</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7702778685697</v>
+        <v>136.1912378823624</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1030794193924</v>
+        <v>123.1933372845091</v>
       </c>
       <c r="AD2" t="n">
-        <v>81688.84228273685</v>
+        <v>99537.23622970143</v>
       </c>
       <c r="AE2" t="n">
-        <v>111770.2778685697</v>
+        <v>136191.2378823624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681097637042432e-06</v>
+        <v>1.092496143162899e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.190538194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>101103.0794193924</v>
+        <v>123193.3372845091</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.70202403392908</v>
+        <v>123.9082242842366</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0484637091456</v>
+        <v>169.5366989106718</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1596278744901</v>
+        <v>153.3563543129358</v>
       </c>
       <c r="AD2" t="n">
-        <v>98702.02403392908</v>
+        <v>123908.2242842366</v>
       </c>
       <c r="AE2" t="n">
-        <v>135048.4637091456</v>
+        <v>169536.6989106718</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.530830440390853e-06</v>
+        <v>9.345287791559827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.640190972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>122159.6278744901</v>
+        <v>153356.3543129358</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.12982693871902</v>
+        <v>96.95027887909353</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5324319453257</v>
+        <v>132.6516487067589</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.46056475618902</v>
+        <v>119.9915615319794</v>
       </c>
       <c r="AD2" t="n">
-        <v>77129.82693871902</v>
+        <v>96950.27887909353</v>
       </c>
       <c r="AE2" t="n">
-        <v>105532.4319453257</v>
+        <v>132651.6487067589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.966797507922818e-06</v>
+        <v>1.048342784453049e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.580729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95460.56475618902</v>
+        <v>119991.5615319794</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.34102511538831</v>
+        <v>93.99088485517062</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7166702573933</v>
+        <v>128.6024752439797</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.00897400829655</v>
+        <v>116.3288355014359</v>
       </c>
       <c r="AD3" t="n">
-        <v>74341.0251153883</v>
+        <v>93990.88485517062</v>
       </c>
       <c r="AE3" t="n">
-        <v>101716.6702573933</v>
+        <v>128602.4752439797</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.186794300065208e-06</v>
+        <v>1.086995352994055e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>92008.97400829654</v>
+        <v>116328.8355014359</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6974597899523</v>
+        <v>135.1280219887626</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.9341245793476</v>
+        <v>184.8881211125371</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.9565519879649</v>
+        <v>167.2426583257163</v>
       </c>
       <c r="AD2" t="n">
-        <v>114697.4597899523</v>
+        <v>135128.0219887626</v>
       </c>
       <c r="AE2" t="n">
-        <v>156934.1245793476</v>
+        <v>184888.1211125371</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.694656060226943e-06</v>
+        <v>8.027338679270568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>141956.5519879649</v>
+        <v>167242.6583257163</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.58736445811422</v>
+        <v>97.93258580235288</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.1584549644927</v>
+        <v>133.9956843754846</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.02684101703571</v>
+        <v>121.2073243228483</v>
       </c>
       <c r="AD3" t="n">
-        <v>77587.36445811423</v>
+        <v>97932.58580235287</v>
       </c>
       <c r="AE3" t="n">
-        <v>106158.4549644927</v>
+        <v>133995.6843754846</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088666763750831e-06</v>
+        <v>1.041094163040423e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.383246527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>96026.84101703571</v>
+        <v>121207.3243228483</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.0733651592628</v>
+        <v>150.4872400680553</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.4991401751552</v>
+        <v>205.9032808894939</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.0360643409502</v>
+        <v>186.252160748529</v>
       </c>
       <c r="AD2" t="n">
-        <v>126073.3651592628</v>
+        <v>150487.2400680553</v>
       </c>
       <c r="AE2" t="n">
-        <v>172499.1401751552</v>
+        <v>205903.2808894939</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657312143114914e-06</v>
+        <v>7.839304445782814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.235243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>156036.0643409502</v>
+        <v>186252.160748529</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.86599820181989</v>
+        <v>90.62248615197844</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.33022924376957</v>
+        <v>123.9936835350115</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.94573017211215</v>
+        <v>112.1599004046904</v>
       </c>
       <c r="AD2" t="n">
-        <v>71865.99820181989</v>
+        <v>90622.48615197843</v>
       </c>
       <c r="AE2" t="n">
-        <v>98330.22924376957</v>
+        <v>123993.6835350115</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.060641403441343e-06</v>
+        <v>1.116632290529886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>88945.73017211215</v>
+        <v>112159.9004046904</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.23987861692723</v>
+        <v>92.66740709873173</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2100330390447</v>
+        <v>126.791634589903</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.64612813148798</v>
+        <v>114.690818937853</v>
       </c>
       <c r="AD2" t="n">
-        <v>73239.87861692724</v>
+        <v>92667.40709873172</v>
       </c>
       <c r="AE2" t="n">
-        <v>100210.0330390447</v>
+        <v>126791.634589903</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.157493087854548e-06</v>
+        <v>1.099991203819395e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.546006944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>90646.12813148799</v>
+        <v>114690.8189378529</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.59485891341137</v>
+        <v>93.02238739521587</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6957327413195</v>
+        <v>127.2773342921778</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.08547333586162</v>
+        <v>115.1301641422266</v>
       </c>
       <c r="AD3" t="n">
-        <v>73594.85891341137</v>
+        <v>93022.38739521588</v>
       </c>
       <c r="AE3" t="n">
-        <v>100695.7327413195</v>
+        <v>127277.3342921778</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143607183254032e-06</v>
+        <v>1.097510588299457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>91085.47333586162</v>
+        <v>115130.1641422266</v>
       </c>
     </row>
   </sheetData>
